--- a/Italy Variable Data.xlsx
+++ b/Italy Variable Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samarth\Documents\MM paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C64ED9CD-D88E-4EBA-BB9A-1A3E754D64D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1E8E8F-3F08-4EB4-9683-727A56491DB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D5758C7C-95D2-4D37-B373-3658212AC713}"/>
   </bookViews>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>days</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>days</t>
   </si>
 </sst>
 </file>
@@ -405,33 +405,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAB4CE2-3478-41D9-8215-583871EB8551}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="18.33203125" customWidth="1"/>
+    <col min="1" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -439,1778 +439,1778 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>60461803</v>
+      </c>
+      <c r="B2">
+        <v>2703</v>
+      </c>
+      <c r="C2">
+        <v>94</v>
+      </c>
+      <c r="D2">
+        <v>127</v>
+      </c>
+      <c r="E2">
+        <v>2948</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>127</v>
-      </c>
-      <c r="C2">
-        <v>94</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>2703</v>
-      </c>
-      <c r="F2">
-        <v>2948</v>
-      </c>
-      <c r="G2">
-        <v>60461803</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f t="shared" ref="A3:A66" si="0">ROW()-1</f>
-        <v>2</v>
+        <v>60461895</v>
       </c>
       <c r="B3">
-        <v>150</v>
+        <v>5390</v>
       </c>
       <c r="C3">
         <v>162</v>
       </c>
       <c r="D3">
+        <v>150</v>
+      </c>
+      <c r="E3">
+        <v>5634</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>5390</v>
-      </c>
-      <c r="F3">
-        <v>5634</v>
-      </c>
       <c r="G3">
-        <v>60461895</v>
+        <f t="shared" ref="G3:G66" si="0">ROW()-1</f>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>60462579</v>
       </c>
       <c r="B4">
-        <v>164</v>
+        <v>5992</v>
       </c>
       <c r="C4">
         <v>221</v>
       </c>
       <c r="D4">
+        <v>164</v>
+      </c>
+      <c r="E4">
+        <v>5627</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>5992</v>
-      </c>
-      <c r="F4">
-        <v>5627</v>
-      </c>
       <c r="G4">
-        <v>60462579</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>60462713</v>
       </c>
       <c r="B5">
-        <v>304</v>
+        <v>7509</v>
       </c>
       <c r="C5">
         <v>284</v>
       </c>
       <c r="D5">
+        <v>304</v>
+      </c>
+      <c r="E5">
+        <v>7255</v>
+      </c>
+      <c r="F5">
         <v>45</v>
       </c>
-      <c r="E5">
-        <v>7509</v>
-      </c>
-      <c r="F5">
-        <v>7255</v>
-      </c>
       <c r="G5">
-        <v>60462713</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>60462682</v>
       </c>
       <c r="B6">
-        <v>409</v>
+        <v>9810</v>
       </c>
       <c r="C6">
         <v>412</v>
       </c>
       <c r="D6">
+        <v>409</v>
+      </c>
+      <c r="E6">
+        <v>9821</v>
+      </c>
+      <c r="F6">
         <v>46</v>
       </c>
-      <c r="E6">
-        <v>9810</v>
-      </c>
-      <c r="F6">
-        <v>9821</v>
-      </c>
       <c r="G6">
-        <v>60462682</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>60462776</v>
       </c>
       <c r="B7">
-        <v>506</v>
+        <v>11664</v>
       </c>
       <c r="C7">
         <v>543</v>
       </c>
       <c r="D7">
+        <v>506</v>
+      </c>
+      <c r="E7">
+        <v>11813</v>
+      </c>
+      <c r="F7">
         <v>50</v>
       </c>
-      <c r="E7">
-        <v>11664</v>
-      </c>
-      <c r="F7">
-        <v>11813</v>
-      </c>
       <c r="G7">
-        <v>60462776</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <v>60464323</v>
       </c>
       <c r="B8">
-        <v>779</v>
+        <v>13205</v>
       </c>
       <c r="C8">
         <v>798</v>
       </c>
       <c r="D8">
+        <v>779</v>
+      </c>
+      <c r="E8">
+        <v>12368</v>
+      </c>
+      <c r="F8">
         <v>83</v>
       </c>
-      <c r="E8">
-        <v>13205</v>
-      </c>
-      <c r="F8">
-        <v>12368</v>
-      </c>
       <c r="G8">
-        <v>60464323</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>60464680</v>
       </c>
       <c r="B9">
-        <v>908</v>
+        <v>14591</v>
       </c>
       <c r="C9">
         <v>927</v>
       </c>
       <c r="D9">
+        <v>908</v>
+      </c>
+      <c r="E9">
+        <v>13721</v>
+      </c>
+      <c r="F9">
         <v>149</v>
       </c>
-      <c r="E9">
-        <v>14591</v>
-      </c>
-      <c r="F9">
-        <v>13721</v>
-      </c>
       <c r="G9">
-        <v>60464680</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <v>60464358</v>
       </c>
       <c r="B10">
-        <v>1263</v>
+        <v>16160</v>
       </c>
       <c r="C10">
         <v>1000</v>
       </c>
       <c r="D10">
+        <v>1263</v>
+      </c>
+      <c r="E10">
+        <v>16051</v>
+      </c>
+      <c r="F10">
         <v>160</v>
       </c>
-      <c r="E10">
-        <v>16160</v>
-      </c>
-      <c r="F10">
-        <v>16051</v>
-      </c>
       <c r="G10">
-        <v>60464358</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>60464533</v>
       </c>
       <c r="B11">
-        <v>1641</v>
+        <v>18649</v>
       </c>
       <c r="C11">
         <v>1065</v>
       </c>
       <c r="D11">
+        <v>1641</v>
+      </c>
+      <c r="E11">
+        <v>18924</v>
+      </c>
+      <c r="F11">
         <v>276</v>
       </c>
-      <c r="E11">
-        <v>18649</v>
-      </c>
-      <c r="F11">
-        <v>18924</v>
-      </c>
       <c r="G11">
-        <v>60464533</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <v>60466751</v>
       </c>
       <c r="B12">
-        <v>2141</v>
+        <v>20227</v>
       </c>
       <c r="C12">
         <v>1155</v>
       </c>
       <c r="D12">
+        <v>2141</v>
+      </c>
+      <c r="E12">
+        <v>19012</v>
+      </c>
+      <c r="F12">
         <v>414</v>
       </c>
-      <c r="E12">
-        <v>20227</v>
-      </c>
-      <c r="F12">
-        <v>19012</v>
-      </c>
       <c r="G12">
-        <v>60466751</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <v>60468065</v>
       </c>
       <c r="B13">
-        <v>2856</v>
+        <v>22725</v>
       </c>
       <c r="C13">
         <v>1060</v>
       </c>
       <c r="D13">
+        <v>2856</v>
+      </c>
+      <c r="E13">
+        <v>20925</v>
+      </c>
+      <c r="F13">
         <v>523</v>
       </c>
-      <c r="E13">
-        <v>22725</v>
-      </c>
-      <c r="F13">
-        <v>20925</v>
-      </c>
       <c r="G13">
-        <v>60468065</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <v>60468872</v>
       </c>
       <c r="B14">
-        <v>3218</v>
+        <v>26289</v>
       </c>
       <c r="C14">
         <v>1843</v>
       </c>
       <c r="D14">
+        <v>3218</v>
+      </c>
+      <c r="E14">
+        <v>24893</v>
+      </c>
+      <c r="F14">
         <v>589</v>
       </c>
-      <c r="E14">
-        <v>26289</v>
-      </c>
-      <c r="F14">
-        <v>24893</v>
-      </c>
       <c r="G14">
-        <v>60468872</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <v>60470576</v>
       </c>
       <c r="B15">
-        <v>4207</v>
+        <v>31211</v>
       </c>
       <c r="C15">
         <v>2180</v>
       </c>
       <c r="D15">
+        <v>4207</v>
+      </c>
+      <c r="E15">
+        <v>29470</v>
+      </c>
+      <c r="F15">
         <v>622</v>
       </c>
-      <c r="E15">
-        <v>31211</v>
-      </c>
-      <c r="F15">
-        <v>29470</v>
-      </c>
       <c r="G15">
-        <v>60470576</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>60475586</v>
       </c>
       <c r="B16">
-        <v>5049</v>
+        <v>33642</v>
       </c>
       <c r="C16">
         <v>2936</v>
       </c>
       <c r="D16">
+        <v>5049</v>
+      </c>
+      <c r="E16">
+        <v>28591</v>
+      </c>
+      <c r="F16">
         <v>724</v>
       </c>
-      <c r="E16">
-        <v>33642</v>
-      </c>
-      <c r="F16">
-        <v>28591</v>
-      </c>
       <c r="G16">
-        <v>60475586</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>60480872</v>
       </c>
       <c r="B17">
-        <v>5915</v>
+        <v>37976</v>
       </c>
       <c r="C17">
         <v>2599</v>
       </c>
       <c r="D17">
+        <v>5915</v>
+      </c>
+      <c r="E17">
+        <v>28448</v>
+      </c>
+      <c r="F17">
         <v>1004</v>
       </c>
-      <c r="E17">
-        <v>37976</v>
-      </c>
-      <c r="F17">
-        <v>28448</v>
-      </c>
       <c r="G17">
-        <v>60480872</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <v>60488389</v>
       </c>
       <c r="B18">
-        <v>6866</v>
+        <v>45722</v>
       </c>
       <c r="C18">
         <v>3724</v>
       </c>
       <c r="D18">
+        <v>6866</v>
+      </c>
+      <c r="E18">
+        <v>30794</v>
+      </c>
+      <c r="F18">
         <v>1045</v>
       </c>
-      <c r="E18">
-        <v>45722</v>
-      </c>
-      <c r="F18">
-        <v>30794</v>
-      </c>
       <c r="G18">
-        <v>60488389</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <v>60506691</v>
       </c>
       <c r="B19">
-        <v>7803</v>
+        <v>53757</v>
       </c>
       <c r="C19">
         <v>5036</v>
       </c>
       <c r="D19">
+        <v>7803</v>
+      </c>
+      <c r="E19">
+        <v>22989</v>
+      </c>
+      <c r="F19">
         <v>1258</v>
       </c>
-      <c r="E19">
-        <v>53757</v>
-      </c>
-      <c r="F19">
-        <v>22989</v>
-      </c>
       <c r="G19">
-        <v>60506691</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <v>60519010</v>
       </c>
       <c r="B20">
-        <v>8754</v>
+        <v>60930</v>
       </c>
       <c r="C20">
         <v>6201</v>
       </c>
       <c r="D20">
+        <v>8754</v>
+      </c>
+      <c r="E20">
+        <v>20140</v>
+      </c>
+      <c r="F20">
         <v>1439</v>
       </c>
-      <c r="E20">
-        <v>60930</v>
-      </c>
-      <c r="F20">
-        <v>20140</v>
-      </c>
       <c r="G20">
-        <v>60519010</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>60532425</v>
       </c>
       <c r="B21">
-        <v>9890</v>
+        <v>68232</v>
       </c>
       <c r="C21">
         <v>7860</v>
       </c>
       <c r="D21">
+        <v>9890</v>
+      </c>
+      <c r="E21">
+        <v>17349</v>
+      </c>
+      <c r="F21">
         <v>1966</v>
       </c>
-      <c r="E21">
-        <v>68232</v>
-      </c>
-      <c r="F21">
-        <v>17349</v>
-      </c>
       <c r="G21">
-        <v>60532425</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <v>60532173</v>
       </c>
       <c r="B22">
-        <v>11335</v>
+        <v>78062</v>
       </c>
       <c r="C22">
         <v>9268</v>
       </c>
       <c r="D22">
+        <v>11335</v>
+      </c>
+      <c r="E22">
+        <v>30653</v>
+      </c>
+      <c r="F22">
         <v>2335</v>
       </c>
-      <c r="E22">
-        <v>78062</v>
-      </c>
-      <c r="F22">
-        <v>30653</v>
-      </c>
       <c r="G22">
-        <v>60532173</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <v>60538969</v>
       </c>
       <c r="B23">
-        <v>12876</v>
+        <v>86227</v>
       </c>
       <c r="C23">
         <v>10197</v>
       </c>
       <c r="D23">
+        <v>12876</v>
+      </c>
+      <c r="E23">
+        <v>34906</v>
+      </c>
+      <c r="F23">
         <v>2749</v>
       </c>
-      <c r="E23">
-        <v>86227</v>
-      </c>
-      <c r="F23">
-        <v>34906</v>
-      </c>
       <c r="G23">
-        <v>60538969</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <v>60547420</v>
       </c>
       <c r="B24">
-        <v>14954</v>
+        <v>92911</v>
       </c>
       <c r="C24">
         <v>11108</v>
       </c>
       <c r="D24">
+        <v>14954</v>
+      </c>
+      <c r="E24">
+        <v>36320</v>
+      </c>
+      <c r="F24">
         <v>2941</v>
       </c>
-      <c r="E24">
-        <v>92911</v>
-      </c>
-      <c r="F24">
-        <v>36320</v>
-      </c>
       <c r="G24">
-        <v>60547420</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <v>60559429</v>
       </c>
       <c r="B25">
-        <v>16620</v>
+        <v>103464</v>
       </c>
       <c r="C25">
         <v>12090</v>
       </c>
       <c r="D25">
+        <v>16620</v>
+      </c>
+      <c r="E25">
+        <v>38596</v>
+      </c>
+      <c r="F25">
         <v>4025</v>
       </c>
-      <c r="E25">
-        <v>103464</v>
-      </c>
-      <c r="F25">
-        <v>38596</v>
-      </c>
       <c r="G25">
-        <v>60559429</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>60571533</v>
       </c>
       <c r="B26">
-        <v>18255</v>
+        <v>114236</v>
       </c>
       <c r="C26">
         <v>14935</v>
       </c>
       <c r="D26">
+        <v>18255</v>
+      </c>
+      <c r="E26">
+        <v>42159</v>
+      </c>
+      <c r="F26">
         <v>4440</v>
       </c>
-      <c r="E26">
-        <v>114236</v>
-      </c>
-      <c r="F26">
-        <v>42159</v>
-      </c>
       <c r="G26">
-        <v>60571533</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <v>60596105</v>
       </c>
       <c r="B27">
-        <v>18675</v>
+        <v>129304</v>
       </c>
       <c r="C27">
         <v>19185</v>
       </c>
       <c r="D27">
+        <v>18675</v>
+      </c>
+      <c r="E27">
+        <v>38014</v>
+      </c>
+      <c r="F27">
         <v>5129</v>
       </c>
-      <c r="E27">
-        <v>129304</v>
-      </c>
-      <c r="F27">
-        <v>38014</v>
-      </c>
       <c r="G27">
-        <v>60596105</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <v>60627635</v>
       </c>
       <c r="B28">
-        <v>20565</v>
+        <v>145764</v>
       </c>
       <c r="C28">
         <v>22116</v>
       </c>
       <c r="D28">
+        <v>20565</v>
+      </c>
+      <c r="E28">
+        <v>28708</v>
+      </c>
+      <c r="F28">
         <v>6072</v>
       </c>
-      <c r="E28">
-        <v>145764</v>
-      </c>
-      <c r="F28">
-        <v>28708</v>
-      </c>
       <c r="G28">
-        <v>60627635</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <v>60622145</v>
       </c>
       <c r="B29">
-        <v>22855</v>
+        <v>161502</v>
       </c>
       <c r="C29">
         <v>23783</v>
       </c>
       <c r="D29">
+        <v>22855</v>
+      </c>
+      <c r="E29">
+        <v>54845</v>
+      </c>
+      <c r="F29">
         <v>7024</v>
       </c>
-      <c r="E29">
-        <v>161502</v>
-      </c>
-      <c r="F29">
-        <v>54845</v>
-      </c>
       <c r="G29">
-        <v>60622145</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <v>60635703</v>
       </c>
       <c r="B30">
-        <v>23896</v>
+        <v>172168</v>
       </c>
       <c r="C30">
         <v>26522</v>
       </c>
       <c r="D30">
+        <v>23896</v>
+      </c>
+      <c r="E30">
+        <v>56141</v>
+      </c>
+      <c r="F30">
         <v>7432</v>
       </c>
-      <c r="E30">
-        <v>172168</v>
-      </c>
-      <c r="F30">
-        <v>56141</v>
-      </c>
       <c r="G30">
-        <v>60635703</v>
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>60653059</v>
       </c>
       <c r="B31">
-        <v>25333</v>
+        <v>185603</v>
       </c>
       <c r="C31">
         <v>28697</v>
       </c>
       <c r="D31">
+        <v>25333</v>
+      </c>
+      <c r="E31">
+        <v>56726</v>
+      </c>
+      <c r="F31">
         <v>8326</v>
       </c>
-      <c r="E31">
-        <v>185603</v>
-      </c>
-      <c r="F31">
-        <v>56726</v>
-      </c>
       <c r="G31">
-        <v>60653059</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <v>60672572</v>
       </c>
       <c r="B32">
-        <v>26601</v>
+        <v>202779</v>
       </c>
       <c r="C32">
         <v>30920</v>
       </c>
       <c r="D32">
+        <v>26601</v>
+      </c>
+      <c r="E32">
+        <v>58916</v>
+      </c>
+      <c r="F32">
         <v>9362</v>
       </c>
-      <c r="E32">
-        <v>202779</v>
-      </c>
-      <c r="F32">
-        <v>58916</v>
-      </c>
       <c r="G32">
-        <v>60672572</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <v>60687601</v>
       </c>
       <c r="B33">
-        <v>28365</v>
+        <v>225663</v>
       </c>
       <c r="C33">
         <v>33648</v>
       </c>
       <c r="D33">
+        <v>28365</v>
+      </c>
+      <c r="E33">
+        <v>72262</v>
+      </c>
+      <c r="F33">
         <v>10361</v>
       </c>
-      <c r="E33">
-        <v>225663</v>
-      </c>
-      <c r="F33">
-        <v>72262</v>
-      </c>
       <c r="G33">
-        <v>60687601</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <v>60712959</v>
       </c>
       <c r="B34">
-        <v>29761</v>
+        <v>246300</v>
       </c>
       <c r="C34">
         <v>36653</v>
       </c>
       <c r="D34">
+        <v>29761</v>
+      </c>
+      <c r="E34">
+        <v>72531</v>
+      </c>
+      <c r="F34">
         <v>10950</v>
       </c>
-      <c r="E34">
-        <v>246300</v>
-      </c>
-      <c r="F34">
-        <v>72531</v>
-      </c>
       <c r="G34">
-        <v>60712959</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <v>60758523</v>
       </c>
       <c r="B35">
-        <v>30532</v>
+        <v>268454</v>
       </c>
       <c r="C35">
         <v>39533</v>
       </c>
       <c r="D35">
+        <v>30532</v>
+      </c>
+      <c r="E35">
+        <v>54206</v>
+      </c>
+      <c r="F35">
         <v>12384</v>
       </c>
-      <c r="E35">
-        <v>268454</v>
-      </c>
-      <c r="F35">
-        <v>54206</v>
-      </c>
       <c r="G35">
-        <v>60758523</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>60738557</v>
       </c>
       <c r="B36">
-        <v>31292</v>
+        <v>283769</v>
       </c>
       <c r="C36">
         <v>42588</v>
       </c>
       <c r="D36">
+        <v>31292</v>
+      </c>
+      <c r="E36">
+        <v>93948</v>
+      </c>
+      <c r="F36">
         <v>13030</v>
       </c>
-      <c r="E36">
-        <v>283769</v>
-      </c>
-      <c r="F36">
-        <v>93948</v>
-      </c>
       <c r="G36">
-        <v>60738557</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <v>60753531</v>
       </c>
       <c r="B37">
-        <v>31776</v>
+        <v>298350</v>
       </c>
       <c r="C37">
         <v>43752</v>
       </c>
       <c r="D37">
+        <v>31776</v>
+      </c>
+      <c r="E37">
+        <v>96793</v>
+      </c>
+      <c r="F37">
         <v>14620</v>
       </c>
-      <c r="E37">
-        <v>298350</v>
-      </c>
-      <c r="F37">
-        <v>96793</v>
-      </c>
       <c r="G37">
-        <v>60753531</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
-        <f t="shared" si="0"/>
-        <v>37</v>
+        <v>60766431</v>
       </c>
       <c r="B38">
-        <v>32215</v>
+        <v>316855</v>
       </c>
       <c r="C38">
         <v>45420</v>
       </c>
       <c r="D38">
+        <v>32215</v>
+      </c>
+      <c r="E38">
+        <v>105614</v>
+      </c>
+      <c r="F38">
         <v>15729</v>
       </c>
-      <c r="E38">
-        <v>316855</v>
-      </c>
-      <c r="F38">
-        <v>105614</v>
-      </c>
       <c r="G38">
-        <v>60766431</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
-        <f t="shared" si="0"/>
-        <v>38</v>
+        <v>60784254</v>
       </c>
       <c r="B39">
-        <v>32438</v>
+        <v>338390</v>
       </c>
       <c r="C39">
         <v>48134</v>
       </c>
       <c r="D39">
+        <v>32438</v>
+      </c>
+      <c r="E39">
+        <v>113381</v>
+      </c>
+      <c r="F39">
         <v>16847</v>
       </c>
-      <c r="E39">
-        <v>338390</v>
-      </c>
-      <c r="F39">
-        <v>113381</v>
-      </c>
       <c r="G39">
-        <v>60784254</v>
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <v>60798871</v>
       </c>
       <c r="B40">
-        <v>32593</v>
+        <v>363270</v>
       </c>
       <c r="C40">
         <v>50456</v>
       </c>
       <c r="D40">
+        <v>32593</v>
+      </c>
+      <c r="E40">
+        <v>127552</v>
+      </c>
+      <c r="F40">
         <v>18278</v>
       </c>
-      <c r="E40">
-        <v>363270</v>
-      </c>
-      <c r="F40">
-        <v>127552</v>
-      </c>
       <c r="G40">
-        <v>60798871</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <v>60840568</v>
       </c>
       <c r="B41">
-        <v>32809</v>
+        <v>387406</v>
       </c>
       <c r="C41">
         <v>52579</v>
       </c>
       <c r="D41">
+        <v>32809</v>
+      </c>
+      <c r="E41">
+        <v>113810</v>
+      </c>
+      <c r="F41">
         <v>19758</v>
       </c>
-      <c r="E41">
-        <v>387406</v>
-      </c>
-      <c r="F41">
-        <v>113810</v>
-      </c>
       <c r="G41">
-        <v>60840568</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
-        <f t="shared" si="0"/>
-        <v>41</v>
+        <v>60898440</v>
       </c>
       <c r="B42">
-        <v>33004</v>
+        <v>410765</v>
       </c>
       <c r="C42">
         <v>55270</v>
       </c>
       <c r="D42">
+        <v>33004</v>
+      </c>
+      <c r="E42">
+        <v>83421</v>
+      </c>
+      <c r="F42">
         <v>20996</v>
       </c>
-      <c r="E42">
-        <v>410765</v>
-      </c>
-      <c r="F42">
-        <v>83421</v>
-      </c>
       <c r="G42">
-        <v>60898440</v>
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <v>60850030</v>
       </c>
       <c r="B43">
-        <v>32926</v>
+        <v>432164</v>
       </c>
       <c r="C43">
         <v>58320</v>
       </c>
       <c r="D43">
+        <v>32926</v>
+      </c>
+      <c r="E43">
+        <v>157021</v>
+      </c>
+      <c r="F43">
         <v>21815</v>
       </c>
-      <c r="E43">
-        <v>432164</v>
-      </c>
-      <c r="F43">
-        <v>157021</v>
-      </c>
       <c r="G43">
-        <v>60850030</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <v>60862081</v>
       </c>
       <c r="B44">
-        <v>32874</v>
+        <v>451083</v>
       </c>
       <c r="C44">
         <v>60313</v>
       </c>
       <c r="D44">
+        <v>32874</v>
+      </c>
+      <c r="E44">
+        <v>166852</v>
+      </c>
+      <c r="F44">
         <v>22837</v>
       </c>
-      <c r="E44">
-        <v>451083</v>
-      </c>
-      <c r="F44">
-        <v>166852</v>
-      </c>
       <c r="G44">
-        <v>60862081</v>
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>60878164</v>
       </c>
       <c r="B45">
-        <v>32510</v>
+        <v>472154</v>
       </c>
       <c r="C45">
         <v>61557</v>
       </c>
       <c r="D45">
+        <v>32510</v>
+      </c>
+      <c r="E45">
+        <v>174275</v>
+      </c>
+      <c r="F45">
         <v>24392</v>
       </c>
-      <c r="E45">
-        <v>472154</v>
-      </c>
-      <c r="F45">
-        <v>174275</v>
-      </c>
       <c r="G45">
-        <v>60878164</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <v>60896583</v>
       </c>
       <c r="B46">
-        <v>32178</v>
+        <v>504454</v>
       </c>
       <c r="C46">
         <v>63084</v>
       </c>
       <c r="D46">
+        <v>32178</v>
+      </c>
+      <c r="E46">
+        <v>191450</v>
+      </c>
+      <c r="F46">
         <v>26491</v>
       </c>
-      <c r="E46">
-        <v>504454</v>
-      </c>
-      <c r="F46">
-        <v>191450</v>
-      </c>
       <c r="G46">
-        <v>60896583</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <v>60913382</v>
       </c>
       <c r="B47">
-        <v>32004</v>
+        <v>533356</v>
       </c>
       <c r="C47">
         <v>64873</v>
       </c>
       <c r="D47">
+        <v>32004</v>
+      </c>
+      <c r="E47">
+        <v>207147</v>
+      </c>
+      <c r="F47">
         <v>28470</v>
       </c>
-      <c r="E47">
-        <v>533356</v>
-      </c>
-      <c r="F47">
-        <v>207147</v>
-      </c>
       <c r="G47">
-        <v>60913382</v>
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
-        <f t="shared" si="0"/>
-        <v>47</v>
+        <v>60980646</v>
       </c>
       <c r="B48">
-        <v>31739</v>
+        <v>566790</v>
       </c>
       <c r="C48">
         <v>66534</v>
       </c>
       <c r="D48">
+        <v>31739</v>
+      </c>
+      <c r="E48">
+        <v>176698</v>
+      </c>
+      <c r="F48">
         <v>30455</v>
       </c>
-      <c r="E48">
-        <v>566790</v>
-      </c>
-      <c r="F48">
-        <v>176698</v>
-      </c>
       <c r="G48">
-        <v>60980646</v>
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <v>61091466</v>
       </c>
       <c r="B49">
-        <v>31525</v>
+        <v>602171</v>
       </c>
       <c r="C49">
         <v>68744</v>
       </c>
       <c r="D49">
+        <v>31525</v>
+      </c>
+      <c r="E49">
+        <v>105334</v>
+      </c>
+      <c r="F49">
         <v>32534</v>
       </c>
-      <c r="E49">
-        <v>602171</v>
-      </c>
-      <c r="F49">
-        <v>105334</v>
-      </c>
       <c r="G49">
-        <v>61091466</v>
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <v>61119378</v>
       </c>
       <c r="B50">
-        <v>31190</v>
+        <v>631371</v>
       </c>
       <c r="C50">
         <v>71063</v>
       </c>
       <c r="D50">
+        <v>31190</v>
+      </c>
+      <c r="E50">
+        <v>110283</v>
+      </c>
+      <c r="F50">
         <v>34211</v>
       </c>
-      <c r="E50">
-        <v>631371</v>
-      </c>
-      <c r="F50">
-        <v>110283</v>
-      </c>
       <c r="G50">
-        <v>61119378</v>
+        <f t="shared" si="0"/>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <v>61185645</v>
       </c>
       <c r="B51">
-        <v>31283</v>
+        <v>654319</v>
       </c>
       <c r="C51">
         <v>72333</v>
       </c>
       <c r="D51">
+        <v>31283</v>
+      </c>
+      <c r="E51">
+        <v>69551</v>
+      </c>
+      <c r="F51">
         <v>35435</v>
       </c>
-      <c r="E51">
-        <v>654319</v>
-      </c>
-      <c r="F51">
-        <v>69551</v>
-      </c>
       <c r="G51">
-        <v>61185645</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
-        <f t="shared" si="0"/>
-        <v>51</v>
+        <v>61033092</v>
       </c>
       <c r="B52">
-        <v>31197</v>
+        <v>671056</v>
       </c>
       <c r="C52">
         <v>73094</v>
       </c>
       <c r="D52">
+        <v>31197</v>
+      </c>
+      <c r="E52">
+        <v>241211</v>
+      </c>
+      <c r="F52">
         <v>37130</v>
       </c>
-      <c r="E52">
-        <v>671056</v>
-      </c>
-      <c r="F52">
-        <v>241211</v>
-      </c>
       <c r="G52">
-        <v>61033092</v>
+        <f t="shared" si="0"/>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <v>61040250</v>
       </c>
       <c r="B53">
-        <v>30722</v>
+        <v>698378</v>
       </c>
       <c r="C53">
         <v>74696</v>
       </c>
       <c r="D53">
+        <v>30722</v>
+      </c>
+      <c r="E53">
+        <v>263464</v>
+      </c>
+      <c r="F53">
         <v>38092</v>
       </c>
-      <c r="E53">
-        <v>698378</v>
-      </c>
-      <c r="F53">
-        <v>263464</v>
-      </c>
       <c r="G53">
-        <v>61040250</v>
+        <f t="shared" si="0"/>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
-        <f t="shared" si="0"/>
-        <v>53</v>
+        <v>61064246</v>
       </c>
       <c r="B54">
-        <v>29829</v>
+        <v>736502</v>
       </c>
       <c r="C54">
         <v>76778</v>
       </c>
       <c r="D54">
+        <v>29829</v>
+      </c>
+      <c r="E54">
+        <v>280853</v>
+      </c>
+      <c r="F54">
         <v>40164</v>
       </c>
-      <c r="E54">
-        <v>736502</v>
-      </c>
-      <c r="F54">
-        <v>280853</v>
-      </c>
       <c r="G54">
-        <v>61064246</v>
+        <f t="shared" si="0"/>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
-        <f t="shared" si="0"/>
-        <v>54</v>
+        <v>61088479</v>
       </c>
       <c r="B55">
-        <v>28598</v>
+        <v>777568</v>
       </c>
       <c r="C55">
         <v>78364</v>
       </c>
       <c r="D55">
+        <v>28598</v>
+      </c>
+      <c r="E55">
+        <v>300604</v>
+      </c>
+      <c r="F55">
         <v>42727</v>
       </c>
-      <c r="E55">
-        <v>777568</v>
-      </c>
-      <c r="F55">
-        <v>300604</v>
-      </c>
       <c r="G55">
-        <v>61088479</v>
+        <f t="shared" si="0"/>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
-        <f t="shared" si="0"/>
-        <v>55</v>
+        <v>61181532</v>
       </c>
       <c r="B56">
-        <v>27740</v>
+        <v>816146</v>
       </c>
       <c r="C56">
         <v>80031</v>
       </c>
       <c r="D56">
+        <v>27740</v>
+      </c>
+      <c r="E56">
+        <v>249138</v>
+      </c>
+      <c r="F56">
         <v>44927</v>
       </c>
-      <c r="E56">
-        <v>816146</v>
-      </c>
-      <c r="F56">
-        <v>249138</v>
-      </c>
       <c r="G56">
-        <v>61181532</v>
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <v>61280219</v>
       </c>
       <c r="B57">
-        <v>27668</v>
+        <v>847839</v>
       </c>
       <c r="C57">
         <v>80589</v>
       </c>
       <c r="D57">
+        <v>27668</v>
+      </c>
+      <c r="E57">
+        <v>184758</v>
+      </c>
+      <c r="F57">
         <v>47055</v>
       </c>
-      <c r="E57">
-        <v>847839</v>
-      </c>
-      <c r="F57">
-        <v>184758</v>
-      </c>
       <c r="G57">
-        <v>61280219</v>
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <v>61206075</v>
       </c>
       <c r="B58">
-        <v>27479</v>
+        <v>873765</v>
       </c>
       <c r="C58">
         <v>80758</v>
       </c>
       <c r="D58">
+        <v>27479</v>
+      </c>
+      <c r="E58">
+        <v>286630</v>
+      </c>
+      <c r="F58">
         <v>48877</v>
       </c>
-      <c r="E58">
-        <v>873765</v>
-      </c>
-      <c r="F58">
-        <v>286630</v>
-      </c>
       <c r="G58">
-        <v>61206075</v>
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
-        <f t="shared" si="0"/>
-        <v>58</v>
+        <v>61207007</v>
       </c>
       <c r="B59">
-        <v>26605</v>
+        <v>906344</v>
       </c>
       <c r="C59">
         <v>81104</v>
       </c>
       <c r="D59">
+        <v>26605</v>
+      </c>
+      <c r="E59">
+        <v>320472</v>
+      </c>
+      <c r="F59">
         <v>51600</v>
       </c>
-      <c r="E59">
-        <v>906344</v>
-      </c>
-      <c r="F59">
-        <v>320472</v>
-      </c>
       <c r="G59">
-        <v>61207007</v>
+        <f t="shared" si="0"/>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <v>61237212</v>
       </c>
       <c r="B60">
-        <v>26189</v>
+        <v>945782</v>
       </c>
       <c r="C60">
         <v>81510</v>
       </c>
       <c r="D60">
+        <v>26189</v>
+      </c>
+      <c r="E60">
+        <v>332638</v>
+      </c>
+      <c r="F60">
         <v>54543</v>
       </c>
-      <c r="E60">
-        <v>945782</v>
-      </c>
-      <c r="F60">
-        <v>332638</v>
-      </c>
       <c r="G60">
-        <v>61237212</v>
+        <f t="shared" si="0"/>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>61241865</v>
       </c>
       <c r="B61">
-        <v>25138</v>
+        <v>987444</v>
       </c>
       <c r="C61">
         <v>81710</v>
       </c>
       <c r="D61">
+        <v>25138</v>
+      </c>
+      <c r="E61">
+        <v>371829</v>
+      </c>
+      <c r="F61">
         <v>57576</v>
       </c>
-      <c r="E61">
-        <v>987444</v>
-      </c>
-      <c r="F61">
-        <v>371829</v>
-      </c>
       <c r="G61">
-        <v>61241865</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
-        <f t="shared" si="0"/>
-        <v>61</v>
+        <v>61220468</v>
       </c>
       <c r="B62">
-        <v>24241</v>
+        <v>1026473</v>
       </c>
       <c r="C62">
         <v>82286</v>
       </c>
       <c r="D62">
+        <v>24241</v>
+      </c>
+      <c r="E62">
+        <v>434856</v>
+      </c>
+      <c r="F62">
         <v>60498</v>
       </c>
-      <c r="E62">
-        <v>1026473</v>
-      </c>
-      <c r="F62">
-        <v>434856</v>
-      </c>
       <c r="G62">
-        <v>61220468</v>
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
-        <f t="shared" si="0"/>
-        <v>62</v>
+        <v>61524550</v>
       </c>
       <c r="B63">
-        <v>23635</v>
+        <v>1067340</v>
       </c>
       <c r="C63">
         <v>82212</v>
       </c>
       <c r="D63">
+        <v>23635</v>
+      </c>
+      <c r="E63">
+        <v>173583</v>
+      </c>
+      <c r="F63">
         <v>63120</v>
       </c>
-      <c r="E63">
-        <v>1067340</v>
-      </c>
-      <c r="F63">
-        <v>173583</v>
-      </c>
       <c r="G63">
-        <v>61524550</v>
+        <f t="shared" si="0"/>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
-        <f t="shared" si="0"/>
-        <v>63</v>
+        <v>61516404</v>
       </c>
       <c r="B64">
-        <v>23381</v>
+        <v>1098537</v>
       </c>
       <c r="C64">
         <v>82722</v>
       </c>
       <c r="D64">
+        <v>23381</v>
+      </c>
+      <c r="E64">
+        <v>214990</v>
+      </c>
+      <c r="F64">
         <v>64928</v>
       </c>
-      <c r="E64">
-        <v>1098537</v>
-      </c>
-      <c r="F64">
-        <v>214990</v>
-      </c>
       <c r="G64">
-        <v>61516404</v>
+        <f t="shared" si="0"/>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
-        <f t="shared" si="0"/>
-        <v>64</v>
+        <v>61332086</v>
       </c>
       <c r="B65">
-        <v>22309</v>
+        <v>1118539</v>
       </c>
       <c r="C65">
         <v>83504</v>
       </c>
       <c r="D65">
+        <v>22309</v>
+      </c>
+      <c r="E65">
+        <v>420716</v>
+      </c>
+      <c r="F65">
         <v>66624</v>
       </c>
-      <c r="E65">
-        <v>1118539</v>
-      </c>
-      <c r="F65">
-        <v>420716</v>
-      </c>
       <c r="G65">
-        <v>61332086</v>
+        <f t="shared" si="0"/>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
-        <f t="shared" si="0"/>
-        <v>65</v>
+        <v>61381781</v>
       </c>
       <c r="B66">
-        <v>21586</v>
+        <v>1154334</v>
       </c>
       <c r="C66">
         <v>83619</v>
       </c>
       <c r="D66">
+        <v>21586</v>
+      </c>
+      <c r="E66">
+        <v>408525</v>
+      </c>
+      <c r="F66">
         <v>68941</v>
       </c>
-      <c r="E66">
-        <v>1154334</v>
-      </c>
-      <c r="F66">
-        <v>408525</v>
-      </c>
       <c r="G66">
-        <v>61381781</v>
+        <f t="shared" si="0"/>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
-        <f t="shared" ref="A67:A75" si="1">ROW()-1</f>
-        <v>66</v>
+        <v>61377036</v>
       </c>
       <c r="B67">
-        <v>21005</v>
+        <v>1194226</v>
       </c>
       <c r="C67">
         <v>83652</v>
       </c>
       <c r="D67">
+        <v>21005</v>
+      </c>
+      <c r="E67">
+        <v>454925</v>
+      </c>
+      <c r="F67">
         <v>71252</v>
       </c>
-      <c r="E67">
-        <v>1194226</v>
-      </c>
-      <c r="F67">
-        <v>454925</v>
-      </c>
       <c r="G67">
-        <v>61377036</v>
+        <f t="shared" ref="G67:G75" si="1">ROW()-1</f>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
+        <v>61389725</v>
+      </c>
+      <c r="B68">
+        <v>1237011</v>
+      </c>
+      <c r="C68">
+        <v>81708</v>
+      </c>
+      <c r="D68">
+        <v>19843</v>
+      </c>
+      <c r="E68">
+        <v>486608</v>
+      </c>
+      <c r="F68">
+        <v>75945</v>
+      </c>
+      <c r="G68">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B68">
-        <v>19843</v>
-      </c>
-      <c r="C68">
-        <v>81708</v>
-      </c>
-      <c r="D68">
-        <v>75945</v>
-      </c>
-      <c r="E68">
-        <v>1237011</v>
-      </c>
-      <c r="F68">
-        <v>486608</v>
-      </c>
-      <c r="G68">
-        <v>61389725</v>
-      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
+        <v>61715600</v>
+      </c>
+      <c r="B69">
+        <v>1283391</v>
+      </c>
+      <c r="C69">
+        <v>81796</v>
+      </c>
+      <c r="D69">
+        <v>19147</v>
+      </c>
+      <c r="E69">
+        <v>208809</v>
+      </c>
+      <c r="F69">
+        <v>78249</v>
+      </c>
+      <c r="G69">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B69">
-        <v>19147</v>
-      </c>
-      <c r="C69">
-        <v>81796</v>
-      </c>
-      <c r="D69">
-        <v>78249</v>
-      </c>
-      <c r="E69">
-        <v>1283391</v>
-      </c>
-      <c r="F69">
-        <v>208809</v>
-      </c>
-      <c r="G69">
-        <v>61715600</v>
-      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
+        <v>61562915</v>
+      </c>
+      <c r="B70">
+        <v>1318024</v>
+      </c>
+      <c r="C70">
+        <v>81808</v>
+      </c>
+      <c r="D70">
+        <v>18896</v>
+      </c>
+      <c r="E70">
+        <v>397553</v>
+      </c>
+      <c r="F70">
+        <v>79914</v>
+      </c>
+      <c r="G70">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B70">
-        <v>18896</v>
-      </c>
-      <c r="C70">
-        <v>81808</v>
-      </c>
-      <c r="D70">
-        <v>79914</v>
-      </c>
-      <c r="E70">
-        <v>1318024</v>
-      </c>
-      <c r="F70">
-        <v>397553</v>
-      </c>
-      <c r="G70">
-        <v>61562915</v>
-      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
+        <v>61555793</v>
+      </c>
+      <c r="B71">
+        <v>1346108</v>
+      </c>
+      <c r="C71">
+        <v>81436</v>
+      </c>
+      <c r="D71">
+        <v>18743</v>
+      </c>
+      <c r="E71">
+        <v>433974</v>
+      </c>
+      <c r="F71">
+        <v>81654</v>
+      </c>
+      <c r="G71">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B71">
-        <v>18743</v>
-      </c>
-      <c r="C71">
-        <v>81436</v>
-      </c>
-      <c r="D71">
-        <v>81654</v>
-      </c>
-      <c r="E71">
-        <v>1346108</v>
-      </c>
-      <c r="F71">
-        <v>433974</v>
-      </c>
-      <c r="G71">
-        <v>61555793</v>
-      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
+        <v>61169993</v>
+      </c>
+      <c r="B72">
+        <v>1369627</v>
+      </c>
+      <c r="C72">
+        <v>81678</v>
+      </c>
+      <c r="D72">
+        <v>18302</v>
+      </c>
+      <c r="E72">
+        <v>844319</v>
+      </c>
+      <c r="F72">
+        <v>82879</v>
+      </c>
+      <c r="G72">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B72">
-        <v>18302</v>
-      </c>
-      <c r="C72">
-        <v>81678</v>
-      </c>
-      <c r="D72">
-        <v>82879</v>
-      </c>
-      <c r="E72">
-        <v>1369627</v>
-      </c>
-      <c r="F72">
-        <v>844319</v>
-      </c>
-      <c r="G72">
-        <v>61169993</v>
-      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
+        <v>61185754</v>
+      </c>
+      <c r="B73">
+        <v>1404167</v>
+      </c>
+      <c r="C73">
+        <v>80770</v>
+      </c>
+      <c r="D73">
+        <v>17697</v>
+      </c>
+      <c r="E73">
+        <v>863937</v>
+      </c>
+      <c r="F73">
+        <v>85231</v>
+      </c>
+      <c r="G73">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B73">
-        <v>17697</v>
-      </c>
-      <c r="C73">
-        <v>80770</v>
-      </c>
-      <c r="D73">
-        <v>85231</v>
-      </c>
-      <c r="E73">
-        <v>1404167</v>
-      </c>
-      <c r="F73">
-        <v>863937</v>
-      </c>
-      <c r="G73">
-        <v>61185754</v>
-      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
+        <v>61244476</v>
+      </c>
+      <c r="B74">
+        <v>1444331</v>
+      </c>
+      <c r="C74">
+        <v>74426</v>
+      </c>
+      <c r="D74">
+        <v>17102</v>
+      </c>
+      <c r="E74">
+        <v>846454</v>
+      </c>
+      <c r="F74">
+        <v>93245</v>
+      </c>
+      <c r="G74">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B74">
-        <v>17102</v>
-      </c>
-      <c r="C74">
-        <v>74426</v>
-      </c>
-      <c r="D74">
-        <v>93245</v>
-      </c>
-      <c r="E74">
-        <v>1444331</v>
-      </c>
-      <c r="F74">
-        <v>846454</v>
-      </c>
-      <c r="G74">
-        <v>61244476</v>
-      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
+        <v>61250171</v>
+      </c>
+      <c r="B75">
+        <v>1488305</v>
+      </c>
+      <c r="C75">
+        <v>73139</v>
+      </c>
+      <c r="D75">
+        <v>16485</v>
+      </c>
+      <c r="E75">
+        <v>885860</v>
+      </c>
+      <c r="F75">
+        <v>96276</v>
+      </c>
+      <c r="G75">
         <f t="shared" si="1"/>
         <v>74</v>
-      </c>
-      <c r="B75">
-        <v>16485</v>
-      </c>
-      <c r="C75">
-        <v>73139</v>
-      </c>
-      <c r="D75">
-        <v>96276</v>
-      </c>
-      <c r="E75">
-        <v>1488305</v>
-      </c>
-      <c r="F75">
-        <v>885860</v>
-      </c>
-      <c r="G75">
-        <v>61250171</v>
       </c>
     </row>
   </sheetData>

--- a/Italy Variable Data.xlsx
+++ b/Italy Variable Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samarth\Documents\MM paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1E8E8F-3F08-4EB4-9683-727A56491DB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561810DB-798B-496E-A0DF-CA35B5419CE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D5758C7C-95D2-4D37-B373-3658212AC713}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>I</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>days</t>
+  </si>
+  <si>
+    <t>mu1</t>
+  </si>
+  <si>
+    <t>mu2</t>
+  </si>
+  <si>
+    <t>mu3</t>
   </si>
 </sst>
 </file>
@@ -403,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAB4CE2-3478-41D9-8215-583871EB8551}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G75"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,7 +423,7 @@
     <col min="1" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -436,10 +445,20 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>60461803</v>
+        <f>60461826-B2-C2-D2-E2-F2</f>
+        <v>60455953</v>
       </c>
       <c r="B2">
         <v>2703</v>
@@ -460,10 +479,23 @@
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <f>F2/C2</f>
+        <v>1.0638297872340425E-2</v>
+      </c>
+      <c r="I2">
+        <f>F2/D2</f>
+        <v>7.874015748031496E-3</v>
+      </c>
+      <c r="J2">
+        <f>F2/E2</f>
+        <v>3.3921302578018993E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>60461895</v>
+        <f t="shared" ref="A3:A42" si="0">60461826-B3-C3-D3-E3-F3</f>
+        <v>60450489</v>
       </c>
       <c r="B3">
         <v>5390</v>
@@ -481,13 +513,26 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="0">ROW()-1</f>
+        <f t="shared" ref="G3:G42" si="1">ROW()-1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <f t="shared" ref="H3:H42" si="2">F3/C3</f>
+        <v>6.1728395061728392E-3</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I42" si="3">F3/D3</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J42" si="4">F3/E3</f>
+        <v>1.7749378771742989E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>60462579</v>
+        <f t="shared" si="0"/>
+        <v>60449002</v>
       </c>
       <c r="B4">
         <v>5992</v>
@@ -499,19 +544,32 @@
         <v>164</v>
       </c>
       <c r="E4">
-        <v>5627</v>
+        <v>6444</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>1.3574660633484163E-2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>1.8292682926829267E-2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>4.6554934823091247E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>60462713</v>
+        <f t="shared" si="0"/>
+        <v>60446429</v>
       </c>
       <c r="B5">
         <v>7509</v>
@@ -529,13 +587,26 @@
         <v>45</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0.15845070422535212</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0.14802631578947367</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>6.202618883528601E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>60462682</v>
+        <f t="shared" si="0"/>
+        <v>60441328</v>
       </c>
       <c r="B6">
         <v>9810</v>
@@ -553,13 +624,26 @@
         <v>46</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.11165048543689321</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0.11246943765281174</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>4.6838407494145199E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>60462776</v>
+        <f t="shared" si="0"/>
+        <v>60437250</v>
       </c>
       <c r="B7">
         <v>11664</v>
@@ -577,13 +661,26 @@
         <v>50</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>9.2081031307550645E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>9.8814229249011856E-2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>4.2326250740709389E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>60464323</v>
+        <f t="shared" si="0"/>
+        <v>60434593</v>
       </c>
       <c r="B8">
         <v>13205</v>
@@ -601,13 +698,26 @@
         <v>83</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0.10401002506265664</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0.10654685494223363</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>6.7108667529107375E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>60464680</v>
+        <f t="shared" si="0"/>
+        <v>60431530</v>
       </c>
       <c r="B9">
         <v>14591</v>
@@ -625,13 +735,26 @@
         <v>149</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.16073354908306364</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0.16409691629955947</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>1.0859266817287369E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>60464358</v>
+        <f t="shared" si="0"/>
+        <v>60427192</v>
       </c>
       <c r="B10">
         <v>16160</v>
@@ -649,13 +772,26 @@
         <v>160</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.16</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0.12668250197941408</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>9.9682262787365271E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>60464533</v>
+        <f t="shared" si="0"/>
+        <v>60421271</v>
       </c>
       <c r="B11">
         <v>18649</v>
@@ -673,13 +809,26 @@
         <v>276</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0.25915492957746478</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0.16819012797074953</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>1.4584654407102092E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>60466751</v>
+        <f t="shared" si="0"/>
+        <v>60418877</v>
       </c>
       <c r="B12">
         <v>20227</v>
@@ -697,13 +846,26 @@
         <v>414</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0.35844155844155845</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0.19336758524054179</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>2.1775720597517357E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>60468065</v>
+        <f t="shared" si="0"/>
+        <v>60413737</v>
       </c>
       <c r="B13">
         <v>22725</v>
@@ -721,13 +883,26 @@
         <v>523</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0.49339622641509434</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0.18312324929971988</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>2.4994026284348866E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>60468872</v>
+        <f t="shared" si="0"/>
+        <v>60404994</v>
       </c>
       <c r="B14">
         <v>26289</v>
@@ -745,13 +920,26 @@
         <v>589</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0.31958762886597936</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0.18303293971410814</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>2.3661270236612703E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>60470576</v>
+        <f t="shared" si="0"/>
+        <v>60394136</v>
       </c>
       <c r="B15">
         <v>31211</v>
@@ -769,13 +957,26 @@
         <v>622</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0.28532110091743118</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>0.14784882338958877</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>2.1106209704784527E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>60475586</v>
+        <f t="shared" si="0"/>
+        <v>60389343</v>
       </c>
       <c r="B16">
         <v>33642</v>
@@ -787,19 +988,32 @@
         <v>5049</v>
       </c>
       <c r="E16">
-        <v>28591</v>
+        <v>30132</v>
       </c>
       <c r="F16">
         <v>724</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0.24659400544959129</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0.14339473163002575</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>2.4027611841231911E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>60480872</v>
+        <f t="shared" si="0"/>
+        <v>60383790</v>
       </c>
       <c r="B17">
         <v>37976</v>
@@ -811,19 +1025,32 @@
         <v>5915</v>
       </c>
       <c r="E17">
-        <v>28448</v>
+        <v>30542</v>
       </c>
       <c r="F17">
         <v>1004</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0.38630242400923431</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>0.16973795435333897</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>3.2872765372274244E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>60488389</v>
+        <f t="shared" si="0"/>
+        <v>60373675</v>
       </c>
       <c r="B18">
         <v>45722</v>
@@ -841,13 +1068,26 @@
         <v>1045</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0.28061224489795916</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0.15219924264491699</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>3.3935182178346429E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>60506691</v>
+        <f t="shared" si="0"/>
+        <v>60362150</v>
       </c>
       <c r="B19">
         <v>53757</v>
@@ -859,19 +1099,32 @@
         <v>7803</v>
       </c>
       <c r="E19">
-        <v>22989</v>
+        <v>31822</v>
       </c>
       <c r="F19">
         <v>1258</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0.24980142970611596</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0.16122004357298475</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>3.9532398969266545E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>60519010</v>
+        <f t="shared" si="0"/>
+        <v>60351652</v>
       </c>
       <c r="B20">
         <v>60930</v>
@@ -883,19 +1136,32 @@
         <v>8754</v>
       </c>
       <c r="E20">
-        <v>20140</v>
+        <v>32850</v>
       </c>
       <c r="F20">
         <v>1439</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0.23205934526689243</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>0.16438199680146218</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>4.3805175038051751E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>60532425</v>
+        <f t="shared" si="0"/>
+        <v>60340060</v>
       </c>
       <c r="B21">
         <v>68232</v>
@@ -907,19 +1173,32 @@
         <v>9890</v>
       </c>
       <c r="E21">
-        <v>17349</v>
+        <v>33818</v>
       </c>
       <c r="F21">
         <v>1966</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>0.25012722646310431</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>0.19878665318503538</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>5.8134721154414808E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>60532173</v>
+        <f t="shared" si="0"/>
+        <v>60326464</v>
       </c>
       <c r="B22">
         <v>78062</v>
@@ -931,19 +1210,32 @@
         <v>11335</v>
       </c>
       <c r="E22">
-        <v>30653</v>
+        <v>34362</v>
       </c>
       <c r="F22">
         <v>2335</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>0.25194216659473456</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>0.20599911777679752</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>6.7952971305511908E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>60538969</v>
+        <f t="shared" si="0"/>
+        <v>60314871</v>
       </c>
       <c r="B23">
         <v>86227</v>
@@ -961,13 +1253,26 @@
         <v>2749</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>0.26958909483181326</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>0.21349798073936005</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>7.8754368876410935E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>60547420</v>
+        <f t="shared" si="0"/>
+        <v>60303592</v>
       </c>
       <c r="B24">
         <v>92911</v>
@@ -985,13 +1290,26 @@
         <v>2941</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>0.26476413395750809</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>0.1966697873478668</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>8.097466960352423E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>60559429</v>
+        <f t="shared" si="0"/>
+        <v>60287031</v>
       </c>
       <c r="B25">
         <v>103464</v>
@@ -1009,13 +1327,26 @@
         <v>4025</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>0.33291976840363935</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>0.24217809867629361</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>0.10428541817804954</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>60571533</v>
+        <f t="shared" si="0"/>
+        <v>60267801</v>
       </c>
       <c r="B26">
         <v>114236</v>
@@ -1033,13 +1364,26 @@
         <v>4440</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>0.29728824907934381</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>0.24322103533278555</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>0.10531559097701558</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>60596105</v>
+        <f t="shared" si="0"/>
+        <v>60242031</v>
       </c>
       <c r="B27">
         <v>129304</v>
@@ -1051,19 +1395,32 @@
         <v>18675</v>
       </c>
       <c r="E27">
-        <v>38014</v>
+        <v>47502</v>
       </c>
       <c r="F27">
         <v>5129</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>0.26734427938493616</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>0.27464524765729587</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>0.10797440107784935</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>60627635</v>
+        <f t="shared" si="0"/>
+        <v>60218807</v>
       </c>
       <c r="B28">
         <v>145764</v>
@@ -1075,19 +1432,32 @@
         <v>20565</v>
       </c>
       <c r="E28">
-        <v>28708</v>
+        <v>48502</v>
       </c>
       <c r="F28">
         <v>6072</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>0.27455236028214869</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>0.2952589350838804</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>0.12519071378499855</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>60622145</v>
+        <f t="shared" si="0"/>
+        <v>60191817</v>
       </c>
       <c r="B29">
         <v>161502</v>
@@ -1105,13 +1475,26 @@
         <v>7024</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>0.2953370054240424</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>0.30732881207613216</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>0.12807001549822225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>60635703</v>
+        <f t="shared" si="0"/>
+        <v>60175667</v>
       </c>
       <c r="B30">
         <v>172168</v>
@@ -1129,13 +1512,26 @@
         <v>7432</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>0.28022019455546338</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>0.31101439571476397</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>0.13238096934504195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>60653059</v>
+        <f t="shared" si="0"/>
+        <v>60157141</v>
       </c>
       <c r="B31">
         <v>185603</v>
@@ -1153,13 +1549,26 @@
         <v>8326</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>0.29013485730215705</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>0.32866221923972683</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>0.14677572894263655</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>60672572</v>
+        <f t="shared" si="0"/>
+        <v>60133248</v>
       </c>
       <c r="B32">
         <v>202779</v>
@@ -1177,13 +1586,26 @@
         <v>9362</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>0.30278137128072447</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>0.35194165632870944</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>0.15890420259352298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>60687601</v>
+        <f t="shared" si="0"/>
+        <v>60091527</v>
       </c>
       <c r="B33">
         <v>225663</v>
@@ -1201,13 +1623,26 @@
         <v>10361</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>0.30792320494531622</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>0.36527410541159883</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>0.14338103014032272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>60712959</v>
+        <f t="shared" si="0"/>
+        <v>60065631</v>
       </c>
       <c r="B34">
         <v>246300</v>
@@ -1225,13 +1660,26 @@
         <v>10950</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>0.29874771505743047</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>0.3679311851080273</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>0.15096993009885429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>60758523</v>
+        <f t="shared" si="0"/>
+        <v>60027684</v>
       </c>
       <c r="B35">
         <v>268454</v>
@@ -1243,19 +1691,32 @@
         <v>30532</v>
       </c>
       <c r="E35">
-        <v>54206</v>
+        <v>83239</v>
       </c>
       <c r="F35">
         <v>12384</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>0.31325727872916298</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>0.40560723175684527</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>0.14877641490166868</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>60738557</v>
+        <f t="shared" si="0"/>
+        <v>59997199</v>
       </c>
       <c r="B36">
         <v>283769</v>
@@ -1273,13 +1734,26 @@
         <v>13030</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>0.30595472903165211</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>0.41640035791895691</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="4"/>
+        <v>0.13869374547622088</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>60753531</v>
+        <f t="shared" si="0"/>
+        <v>59976535</v>
       </c>
       <c r="B37">
         <v>298350</v>
@@ -1297,13 +1771,26 @@
         <v>14620</v>
       </c>
       <c r="G37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>0.33415615286158346</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>0.46009566968781468</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="4"/>
+        <v>0.15104398045313194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>60766431</v>
+        <f t="shared" si="0"/>
+        <v>59945993</v>
       </c>
       <c r="B38">
         <v>316855</v>
@@ -1321,13 +1808,26 @@
         <v>15729</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>0.3463011889035667</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>0.48825081483780847</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="4"/>
+        <v>0.14892911924555458</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>60784254</v>
+        <f t="shared" si="0"/>
+        <v>59912636</v>
       </c>
       <c r="B39">
         <v>338390</v>
@@ -1345,13 +1845,26 @@
         <v>16847</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>0.35000207753355217</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>0.51936000986497322</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="4"/>
+        <v>0.14858750584313068</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>60798871</v>
+        <f t="shared" si="0"/>
+        <v>59869677</v>
       </c>
       <c r="B40">
         <v>363270</v>
@@ -1369,13 +1882,26 @@
         <v>18278</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>0.36225622324401457</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>0.56079526278648795</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="4"/>
+        <v>0.14329841946813848</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>60840568</v>
+        <f t="shared" si="0"/>
+        <v>59838689</v>
       </c>
       <c r="B41">
         <v>387406</v>
@@ -1387,19 +1913,32 @@
         <v>32809</v>
       </c>
       <c r="E41">
-        <v>113810</v>
+        <v>130585</v>
       </c>
       <c r="F41">
         <v>19758</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>0.37577740162422257</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>0.60221280746136729</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="4"/>
+        <v>0.15130374851629208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>60898440</v>
+        <f t="shared" si="0"/>
+        <v>59807139</v>
       </c>
       <c r="B42">
         <v>410765</v>
@@ -1411,808 +1950,40 @@
         <v>33004</v>
       </c>
       <c r="E42">
-        <v>83421</v>
+        <v>134652</v>
       </c>
       <c r="F42">
         <v>20996</v>
       </c>
       <c r="G42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>60850030</v>
-      </c>
-      <c r="B43">
-        <v>432164</v>
-      </c>
-      <c r="C43">
-        <v>58320</v>
-      </c>
-      <c r="D43">
-        <v>32926</v>
-      </c>
-      <c r="E43">
-        <v>157021</v>
-      </c>
-      <c r="F43">
-        <v>21815</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>60862081</v>
-      </c>
-      <c r="B44">
-        <v>451083</v>
-      </c>
-      <c r="C44">
-        <v>60313</v>
-      </c>
-      <c r="D44">
-        <v>32874</v>
-      </c>
-      <c r="E44">
-        <v>166852</v>
-      </c>
-      <c r="F44">
-        <v>22837</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>60878164</v>
-      </c>
-      <c r="B45">
-        <v>472154</v>
-      </c>
-      <c r="C45">
-        <v>61557</v>
-      </c>
-      <c r="D45">
-        <v>32510</v>
-      </c>
-      <c r="E45">
-        <v>174275</v>
-      </c>
-      <c r="F45">
-        <v>24392</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>60896583</v>
-      </c>
-      <c r="B46">
-        <v>504454</v>
-      </c>
-      <c r="C46">
-        <v>63084</v>
-      </c>
-      <c r="D46">
-        <v>32178</v>
-      </c>
-      <c r="E46">
-        <v>191450</v>
-      </c>
-      <c r="F46">
-        <v>26491</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>60913382</v>
-      </c>
-      <c r="B47">
-        <v>533356</v>
-      </c>
-      <c r="C47">
-        <v>64873</v>
-      </c>
-      <c r="D47">
-        <v>32004</v>
-      </c>
-      <c r="E47">
-        <v>207147</v>
-      </c>
-      <c r="F47">
-        <v>28470</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>60980646</v>
-      </c>
-      <c r="B48">
-        <v>566790</v>
-      </c>
-      <c r="C48">
-        <v>66534</v>
-      </c>
-      <c r="D48">
-        <v>31739</v>
-      </c>
-      <c r="E48">
-        <v>176698</v>
-      </c>
-      <c r="F48">
-        <v>30455</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>61091466</v>
-      </c>
-      <c r="B49">
-        <v>602171</v>
-      </c>
-      <c r="C49">
-        <v>68744</v>
-      </c>
-      <c r="D49">
-        <v>31525</v>
-      </c>
-      <c r="E49">
-        <v>105334</v>
-      </c>
-      <c r="F49">
-        <v>32534</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>61119378</v>
-      </c>
-      <c r="B50">
-        <v>631371</v>
-      </c>
-      <c r="C50">
-        <v>71063</v>
-      </c>
-      <c r="D50">
-        <v>31190</v>
-      </c>
-      <c r="E50">
-        <v>110283</v>
-      </c>
-      <c r="F50">
-        <v>34211</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>61185645</v>
-      </c>
-      <c r="B51">
-        <v>654319</v>
-      </c>
-      <c r="C51">
-        <v>72333</v>
-      </c>
-      <c r="D51">
-        <v>31283</v>
-      </c>
-      <c r="E51">
-        <v>69551</v>
-      </c>
-      <c r="F51">
-        <v>35435</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>61033092</v>
-      </c>
-      <c r="B52">
-        <v>671056</v>
-      </c>
-      <c r="C52">
-        <v>73094</v>
-      </c>
-      <c r="D52">
-        <v>31197</v>
-      </c>
-      <c r="E52">
-        <v>241211</v>
-      </c>
-      <c r="F52">
-        <v>37130</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>61040250</v>
-      </c>
-      <c r="B53">
-        <v>698378</v>
-      </c>
-      <c r="C53">
-        <v>74696</v>
-      </c>
-      <c r="D53">
-        <v>30722</v>
-      </c>
-      <c r="E53">
-        <v>263464</v>
-      </c>
-      <c r="F53">
-        <v>38092</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>61064246</v>
-      </c>
-      <c r="B54">
-        <v>736502</v>
-      </c>
-      <c r="C54">
-        <v>76778</v>
-      </c>
-      <c r="D54">
-        <v>29829</v>
-      </c>
-      <c r="E54">
-        <v>280853</v>
-      </c>
-      <c r="F54">
-        <v>40164</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>61088479</v>
-      </c>
-      <c r="B55">
-        <v>777568</v>
-      </c>
-      <c r="C55">
-        <v>78364</v>
-      </c>
-      <c r="D55">
-        <v>28598</v>
-      </c>
-      <c r="E55">
-        <v>300604</v>
-      </c>
-      <c r="F55">
-        <v>42727</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>61181532</v>
-      </c>
-      <c r="B56">
-        <v>816146</v>
-      </c>
-      <c r="C56">
-        <v>80031</v>
-      </c>
-      <c r="D56">
-        <v>27740</v>
-      </c>
-      <c r="E56">
-        <v>249138</v>
-      </c>
-      <c r="F56">
-        <v>44927</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>61280219</v>
-      </c>
-      <c r="B57">
-        <v>847839</v>
-      </c>
-      <c r="C57">
-        <v>80589</v>
-      </c>
-      <c r="D57">
-        <v>27668</v>
-      </c>
-      <c r="E57">
-        <v>184758</v>
-      </c>
-      <c r="F57">
-        <v>47055</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>61206075</v>
-      </c>
-      <c r="B58">
-        <v>873765</v>
-      </c>
-      <c r="C58">
-        <v>80758</v>
-      </c>
-      <c r="D58">
-        <v>27479</v>
-      </c>
-      <c r="E58">
-        <v>286630</v>
-      </c>
-      <c r="F58">
-        <v>48877</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>61207007</v>
-      </c>
-      <c r="B59">
-        <v>906344</v>
-      </c>
-      <c r="C59">
-        <v>81104</v>
-      </c>
-      <c r="D59">
-        <v>26605</v>
-      </c>
-      <c r="E59">
-        <v>320472</v>
-      </c>
-      <c r="F59">
-        <v>51600</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>61237212</v>
-      </c>
-      <c r="B60">
-        <v>945782</v>
-      </c>
-      <c r="C60">
-        <v>81510</v>
-      </c>
-      <c r="D60">
-        <v>26189</v>
-      </c>
-      <c r="E60">
-        <v>332638</v>
-      </c>
-      <c r="F60">
-        <v>54543</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>61241865</v>
-      </c>
-      <c r="B61">
-        <v>987444</v>
-      </c>
-      <c r="C61">
-        <v>81710</v>
-      </c>
-      <c r="D61">
-        <v>25138</v>
-      </c>
-      <c r="E61">
-        <v>371829</v>
-      </c>
-      <c r="F61">
-        <v>57576</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>61220468</v>
-      </c>
-      <c r="B62">
-        <v>1026473</v>
-      </c>
-      <c r="C62">
-        <v>82286</v>
-      </c>
-      <c r="D62">
-        <v>24241</v>
-      </c>
-      <c r="E62">
-        <v>434856</v>
-      </c>
-      <c r="F62">
-        <v>60498</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>61524550</v>
-      </c>
-      <c r="B63">
-        <v>1067340</v>
-      </c>
-      <c r="C63">
-        <v>82212</v>
-      </c>
-      <c r="D63">
-        <v>23635</v>
-      </c>
-      <c r="E63">
-        <v>173583</v>
-      </c>
-      <c r="F63">
-        <v>63120</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>61516404</v>
-      </c>
-      <c r="B64">
-        <v>1098537</v>
-      </c>
-      <c r="C64">
-        <v>82722</v>
-      </c>
-      <c r="D64">
-        <v>23381</v>
-      </c>
-      <c r="E64">
-        <v>214990</v>
-      </c>
-      <c r="F64">
-        <v>64928</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>61332086</v>
-      </c>
-      <c r="B65">
-        <v>1118539</v>
-      </c>
-      <c r="C65">
-        <v>83504</v>
-      </c>
-      <c r="D65">
-        <v>22309</v>
-      </c>
-      <c r="E65">
-        <v>420716</v>
-      </c>
-      <c r="F65">
-        <v>66624</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>61381781</v>
-      </c>
-      <c r="B66">
-        <v>1154334</v>
-      </c>
-      <c r="C66">
-        <v>83619</v>
-      </c>
-      <c r="D66">
-        <v>21586</v>
-      </c>
-      <c r="E66">
-        <v>408525</v>
-      </c>
-      <c r="F66">
-        <v>68941</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>61377036</v>
-      </c>
-      <c r="B67">
-        <v>1194226</v>
-      </c>
-      <c r="C67">
-        <v>83652</v>
-      </c>
-      <c r="D67">
-        <v>21005</v>
-      </c>
-      <c r="E67">
-        <v>454925</v>
-      </c>
-      <c r="F67">
-        <v>71252</v>
-      </c>
-      <c r="G67">
-        <f t="shared" ref="G67:G75" si="1">ROW()-1</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>61389725</v>
-      </c>
-      <c r="B68">
-        <v>1237011</v>
-      </c>
-      <c r="C68">
-        <v>81708</v>
-      </c>
-      <c r="D68">
-        <v>19843</v>
-      </c>
-      <c r="E68">
-        <v>486608</v>
-      </c>
-      <c r="F68">
-        <v>75945</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>61715600</v>
-      </c>
-      <c r="B69">
-        <v>1283391</v>
-      </c>
-      <c r="C69">
-        <v>81796</v>
-      </c>
-      <c r="D69">
-        <v>19147</v>
-      </c>
-      <c r="E69">
-        <v>208809</v>
-      </c>
-      <c r="F69">
-        <v>78249</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>61562915</v>
-      </c>
-      <c r="B70">
-        <v>1318024</v>
-      </c>
-      <c r="C70">
-        <v>81808</v>
-      </c>
-      <c r="D70">
-        <v>18896</v>
-      </c>
-      <c r="E70">
-        <v>397553</v>
-      </c>
-      <c r="F70">
-        <v>79914</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>61555793</v>
-      </c>
-      <c r="B71">
-        <v>1346108</v>
-      </c>
-      <c r="C71">
-        <v>81436</v>
-      </c>
-      <c r="D71">
-        <v>18743</v>
-      </c>
-      <c r="E71">
-        <v>433974</v>
-      </c>
-      <c r="F71">
-        <v>81654</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>61169993</v>
-      </c>
-      <c r="B72">
-        <v>1369627</v>
-      </c>
-      <c r="C72">
-        <v>81678</v>
-      </c>
-      <c r="D72">
-        <v>18302</v>
-      </c>
-      <c r="E72">
-        <v>844319</v>
-      </c>
-      <c r="F72">
-        <v>82879</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>61185754</v>
-      </c>
-      <c r="B73">
-        <v>1404167</v>
-      </c>
-      <c r="C73">
-        <v>80770</v>
-      </c>
-      <c r="D73">
-        <v>17697</v>
-      </c>
-      <c r="E73">
-        <v>863937</v>
-      </c>
-      <c r="F73">
-        <v>85231</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>61244476</v>
-      </c>
-      <c r="B74">
-        <v>1444331</v>
-      </c>
-      <c r="C74">
-        <v>74426</v>
-      </c>
-      <c r="D74">
-        <v>17102</v>
-      </c>
-      <c r="E74">
-        <v>846454</v>
-      </c>
-      <c r="F74">
-        <v>93245</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>61250171</v>
-      </c>
-      <c r="B75">
-        <v>1488305</v>
-      </c>
-      <c r="C75">
-        <v>73139</v>
-      </c>
-      <c r="D75">
-        <v>16485</v>
-      </c>
-      <c r="E75">
-        <v>885860</v>
-      </c>
-      <c r="F75">
-        <v>96276</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-    </row>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>0.37988058621313553</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>0.63616531329535819</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="4"/>
+        <v>0.15592787333273922</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <v>0.26040000000000002</v>
+      </c>
+      <c r="I43">
+        <v>0.25480000000000003</v>
+      </c>
+      <c r="J43">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="53" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Italy Variable Data.xlsx
+++ b/Italy Variable Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samarth\Documents\MM paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561810DB-798B-496E-A0DF-CA35B5419CE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1F6751-5ECE-4444-8C64-1C5F17BD784D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D5758C7C-95D2-4D37-B373-3658212AC713}"/>
   </bookViews>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAB4CE2-3478-41D9-8215-583871EB8551}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1972,17 +1972,6 @@
         <v>0.15592787333273922</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H43">
-        <v>0.26040000000000002</v>
-      </c>
-      <c r="I43">
-        <v>0.25480000000000003</v>
-      </c>
-      <c r="J43">
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
     <row r="53" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
